--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T10:27:14+00:00</t>
+    <t>2025-07-25T13:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T13:53:43+00:00</t>
+    <t>2025-07-28T11:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,7 +237,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: Usager INS</t>
+    <t>Mapping: UsagerINS</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T11:47:16+00:00</t>
+    <t>2025-07-28T13:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,7 +237,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: UsagerINS</t>
+    <t>Mapping: Modèle de contenu DUI</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
@@ -282,7 +282,7 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fr-core-1:If identityReliability status = 'VALI', then at least Patient.identifier[INS-NIR] or Patient.identifier[INS-NIA] or Patient.identifier[INS-NIR-TEST]or Patient.identifier[INS-NIR-DEMO] SHALL be present {(extension.where(url= 'https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability').extension.where(url = 'identityStatus').value.code = 'VALI') implies (identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.8').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.9').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.10').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.10').exists())}</t>
   </si>
   <si>
-    <t>Usager INS</t>
+    <t>UsagerINS</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -822,7 +822,7 @@
     <t>This extension adds the insee code (5 digits) to the address | Ajout du code insee (5 chiffres) à l'adresse postale</t>
   </si>
   <si>
-    <t>codeCommuneNaissance</t>
+    <t>communeNaissance</t>
   </si>
   <si>
     <t>Patient.extension:birthPlace.value[x].use</t>
@@ -3167,7 +3167,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.6640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:00:34+00:00</t>
+    <t>2025-07-29T08:16:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -12193,7 +12193,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T08:16:15+00:00</t>
+    <t>2025-07-30T16:43:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:43:10+00:00</t>
+    <t>2025-07-31T07:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T07:16:30+00:00</t>
+    <t>2025-07-31T07:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T07:17:41+00:00</t>
+    <t>2025-07-31T10:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T10:47:16+00:00</t>
+    <t>2025-07-31T12:59:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T12:59:07+00:00</t>
+    <t>2025-07-31T13:18:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
